--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nrg2</t>
   </si>
   <si>
     <t>Erbb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.145006047961897</v>
+        <v>0.027178</v>
       </c>
       <c r="H2">
-        <v>0.145006047961897</v>
+        <v>0.081534</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.06062444652142199</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.06161042179872751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.155187815763959</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N2">
-        <v>0.155187815763959</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O2">
-        <v>0.02255027973165014</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P2">
-        <v>0.02255027973165014</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q2">
-        <v>0.02250317185577067</v>
+        <v>0.004458261001333333</v>
       </c>
       <c r="R2">
-        <v>0.02250317185577067</v>
+        <v>0.04012434901199999</v>
       </c>
       <c r="S2">
-        <v>0.02255027973165014</v>
+        <v>0.001222845789543328</v>
       </c>
       <c r="T2">
-        <v>0.02255027973165014</v>
+        <v>0.001711509481349079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.145006047961897</v>
+        <v>0.027178</v>
       </c>
       <c r="H3">
-        <v>0.145006047961897</v>
+        <v>0.081534</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.06062444652142199</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.06161042179872751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.478789175011558</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N3">
-        <v>0.478789175011558</v>
+        <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.06957266442501277</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P3">
-        <v>0.06957266442501277</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q3">
-        <v>0.06942732607536307</v>
+        <v>0.004110853686666666</v>
       </c>
       <c r="R3">
-        <v>0.06942732607536307</v>
+        <v>0.03699768318</v>
       </c>
       <c r="S3">
-        <v>0.06957266442501277</v>
+        <v>0.001127556264800467</v>
       </c>
       <c r="T3">
-        <v>0.06957266442501277</v>
+        <v>0.001578141131500518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,1425 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.027178</v>
+      </c>
+      <c r="H4">
+        <v>0.081534</v>
+      </c>
+      <c r="I4">
+        <v>0.06062444652142199</v>
+      </c>
+      <c r="J4">
+        <v>0.06161042179872751</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.524817</v>
+      </c>
+      <c r="N4">
+        <v>1.574451</v>
+      </c>
+      <c r="O4">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P4">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q4">
+        <v>0.014263476426</v>
+      </c>
+      <c r="R4">
+        <v>0.128371287834</v>
+      </c>
+      <c r="S4">
+        <v>0.003912294970296317</v>
+      </c>
+      <c r="T4">
+        <v>0.005475694476567691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.027178</v>
+      </c>
+      <c r="H5">
+        <v>0.081534</v>
+      </c>
+      <c r="I5">
+        <v>0.06062444652142199</v>
+      </c>
+      <c r="J5">
+        <v>0.06161042179872751</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.830022</v>
+      </c>
+      <c r="O5">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P5">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q5">
+        <v>0.01657877930533333</v>
+      </c>
+      <c r="R5">
+        <v>0.149209013748</v>
+      </c>
+      <c r="S5">
+        <v>0.004547353881531789</v>
+      </c>
+      <c r="T5">
+        <v>0.006364530466427575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.027178</v>
+      </c>
+      <c r="H6">
+        <v>0.081534</v>
+      </c>
+      <c r="I6">
+        <v>0.06062444652142199</v>
+      </c>
+      <c r="J6">
+        <v>0.06161042179872751</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.68238</v>
+      </c>
+      <c r="N6">
+        <v>13.36476</v>
+      </c>
+      <c r="O6">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P6">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q6">
+        <v>0.18161372364</v>
+      </c>
+      <c r="R6">
+        <v>1.08968234184</v>
+      </c>
+      <c r="S6">
+        <v>0.04981439561525009</v>
+      </c>
+      <c r="T6">
+        <v>0.04648054624288265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05389433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.161683</v>
+      </c>
+      <c r="I7">
+        <v>0.1202190789967752</v>
+      </c>
+      <c r="J7">
+        <v>0.1221742810077227</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P7">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q7">
+        <v>0.008840790510444443</v>
+      </c>
+      <c r="R7">
+        <v>0.07956711459399998</v>
+      </c>
+      <c r="S7">
+        <v>0.002424919368493315</v>
+      </c>
+      <c r="T7">
+        <v>0.003393945930200446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05389433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.161683</v>
+      </c>
+      <c r="I8">
+        <v>0.1202190789967752</v>
+      </c>
+      <c r="J8">
+        <v>0.1221742810077227</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.45377</v>
+      </c>
+      <c r="O8">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P8">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q8">
+        <v>0.008151877212222223</v>
+      </c>
+      <c r="R8">
+        <v>0.07336689490999999</v>
+      </c>
+      <c r="S8">
+        <v>0.002235958981059851</v>
+      </c>
+      <c r="T8">
+        <v>0.003129474729124024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05389433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.161683</v>
+      </c>
+      <c r="I9">
+        <v>0.1202190789967752</v>
+      </c>
+      <c r="J9">
+        <v>0.1221742810077227</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.524817</v>
+      </c>
+      <c r="N9">
+        <v>1.574451</v>
+      </c>
+      <c r="O9">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P9">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q9">
+        <v>0.028284662337</v>
+      </c>
+      <c r="R9">
+        <v>0.2545619610329999</v>
+      </c>
+      <c r="S9">
+        <v>0.007758132652420088</v>
+      </c>
+      <c r="T9">
+        <v>0.01085837454380864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05389433333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.161683</v>
+      </c>
+      <c r="I10">
+        <v>0.1202190789967752</v>
+      </c>
+      <c r="J10">
+        <v>0.1221742810077227</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.830022</v>
+      </c>
+      <c r="O10">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P10">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q10">
+        <v>0.03287593855844444</v>
+      </c>
+      <c r="R10">
+        <v>0.295883447026</v>
+      </c>
+      <c r="S10">
+        <v>0.009017462869817552</v>
+      </c>
+      <c r="T10">
+        <v>0.01262094806342642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.145006047961897</v>
-      </c>
-      <c r="H4">
-        <v>0.145006047961897</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>6.24788068951513</v>
-      </c>
-      <c r="N4">
-        <v>6.24788068951513</v>
-      </c>
-      <c r="O4">
-        <v>0.907877055843337</v>
-      </c>
-      <c r="P4">
-        <v>0.907877055843337</v>
-      </c>
-      <c r="Q4">
-        <v>0.905980486924041</v>
-      </c>
-      <c r="R4">
-        <v>0.905980486924041</v>
-      </c>
-      <c r="S4">
-        <v>0.907877055843337</v>
-      </c>
-      <c r="T4">
-        <v>0.907877055843337</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05389433333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.161683</v>
+      </c>
+      <c r="I11">
+        <v>0.1202190789967752</v>
+      </c>
+      <c r="J11">
+        <v>0.1221742810077227</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.68238</v>
+      </c>
+      <c r="N11">
+        <v>13.36476</v>
+      </c>
+      <c r="O11">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P11">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q11">
+        <v>0.36014241518</v>
+      </c>
+      <c r="R11">
+        <v>2.16085449108</v>
+      </c>
+      <c r="S11">
+        <v>0.09878260512498444</v>
+      </c>
+      <c r="T11">
+        <v>0.09217153774116314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.226565</v>
+      </c>
+      <c r="H12">
+        <v>0.6796949999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.5053858902835372</v>
+      </c>
+      <c r="J12">
+        <v>0.5136053136665206</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P12">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q12">
+        <v>0.03716557155666666</v>
+      </c>
+      <c r="R12">
+        <v>0.3344901440099999</v>
+      </c>
+      <c r="S12">
+        <v>0.01019405608609479</v>
+      </c>
+      <c r="T12">
+        <v>0.01426772189424734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.226565</v>
+      </c>
+      <c r="H13">
+        <v>0.6796949999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.5053858902835372</v>
+      </c>
+      <c r="J13">
+        <v>0.5136053136665206</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.45377</v>
+      </c>
+      <c r="O13">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P13">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q13">
+        <v>0.03426946668333333</v>
+      </c>
+      <c r="R13">
+        <v>0.30842520015</v>
+      </c>
+      <c r="S13">
+        <v>0.009399690379517177</v>
+      </c>
+      <c r="T13">
+        <v>0.01315591822276896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.226565</v>
+      </c>
+      <c r="H14">
+        <v>0.6796949999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.5053858902835372</v>
+      </c>
+      <c r="J14">
+        <v>0.5136053136665206</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.524817</v>
+      </c>
+      <c r="N14">
+        <v>1.574451</v>
+      </c>
+      <c r="O14">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P14">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q14">
+        <v>0.118905163605</v>
+      </c>
+      <c r="R14">
+        <v>1.070146472445</v>
+      </c>
+      <c r="S14">
+        <v>0.03261421406818696</v>
+      </c>
+      <c r="T14">
+        <v>0.04564724111721094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.226565</v>
+      </c>
+      <c r="H15">
+        <v>0.6796949999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.5053858902835372</v>
+      </c>
+      <c r="J15">
+        <v>0.5136053136665206</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.830022</v>
+      </c>
+      <c r="O15">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P15">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q15">
+        <v>0.1382063114766666</v>
+      </c>
+      <c r="R15">
+        <v>1.24385680329</v>
+      </c>
+      <c r="S15">
+        <v>0.03790827993852564</v>
+      </c>
+      <c r="T15">
+        <v>0.05305687854610948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.226565</v>
+      </c>
+      <c r="H16">
+        <v>0.6796949999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.5053858902835372</v>
+      </c>
+      <c r="J16">
+        <v>0.5136053136665206</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.68238</v>
+      </c>
+      <c r="N16">
+        <v>13.36476</v>
+      </c>
+      <c r="O16">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P16">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q16">
+        <v>1.5139934247</v>
+      </c>
+      <c r="R16">
+        <v>9.0839605482</v>
+      </c>
+      <c r="S16">
+        <v>0.4152696498112127</v>
+      </c>
+      <c r="T16">
+        <v>0.3874775538861839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1191406666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.357422</v>
+      </c>
+      <c r="I17">
+        <v>0.2657604303061262</v>
+      </c>
+      <c r="J17">
+        <v>0.270082667109976</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P17">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q17">
+        <v>0.01954375553288889</v>
+      </c>
+      <c r="R17">
+        <v>0.175893799796</v>
+      </c>
+      <c r="S17">
+        <v>0.005360610147793013</v>
+      </c>
+      <c r="T17">
+        <v>0.007502773589456554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1191406666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.357422</v>
+      </c>
+      <c r="I18">
+        <v>0.2657604303061262</v>
+      </c>
+      <c r="J18">
+        <v>0.270082667109976</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.45377</v>
+      </c>
+      <c r="O18">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P18">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q18">
+        <v>0.01802082010444445</v>
+      </c>
+      <c r="R18">
+        <v>0.16218738094</v>
+      </c>
+      <c r="S18">
+        <v>0.004942887817076465</v>
+      </c>
+      <c r="T18">
+        <v>0.006918124457320604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1191406666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.357422</v>
+      </c>
+      <c r="I19">
+        <v>0.2657604303061262</v>
+      </c>
+      <c r="J19">
+        <v>0.270082667109976</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.524817</v>
+      </c>
+      <c r="N19">
+        <v>1.574451</v>
+      </c>
+      <c r="O19">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P19">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q19">
+        <v>0.062527047258</v>
+      </c>
+      <c r="R19">
+        <v>0.5627434253219999</v>
+      </c>
+      <c r="S19">
+        <v>0.01715039483986129</v>
+      </c>
+      <c r="T19">
+        <v>0.02400389618078075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1191406666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.357422</v>
+      </c>
+      <c r="I20">
+        <v>0.2657604303061262</v>
+      </c>
+      <c r="J20">
+        <v>0.270082667109976</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.830022</v>
+      </c>
+      <c r="O20">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P20">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q20">
+        <v>0.07267668036488889</v>
+      </c>
+      <c r="R20">
+        <v>0.6540901232840001</v>
+      </c>
+      <c r="S20">
+        <v>0.01993431352619588</v>
+      </c>
+      <c r="T20">
+        <v>0.02790030181729679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1191406666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.357422</v>
+      </c>
+      <c r="I21">
+        <v>0.2657604303061262</v>
+      </c>
+      <c r="J21">
+        <v>0.270082667109976</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.68238</v>
+      </c>
+      <c r="N21">
+        <v>13.36476</v>
+      </c>
+      <c r="O21">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P21">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q21">
+        <v>0.7961432081200001</v>
+      </c>
+      <c r="R21">
+        <v>4.77685924872</v>
+      </c>
+      <c r="S21">
+        <v>0.2183722239751996</v>
+      </c>
+      <c r="T21">
+        <v>0.2037575710651214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.021523</v>
+      </c>
+      <c r="H22">
+        <v>0.043046</v>
+      </c>
+      <c r="I22">
+        <v>0.04801015389213943</v>
+      </c>
+      <c r="J22">
+        <v>0.03252731641705331</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P22">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q22">
+        <v>0.003530618571333333</v>
+      </c>
+      <c r="R22">
+        <v>0.021183711428</v>
+      </c>
+      <c r="S22">
+        <v>0.0009684049572573794</v>
+      </c>
+      <c r="T22">
+        <v>0.0009035940483007391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.021523</v>
+      </c>
+      <c r="H23">
+        <v>0.043046</v>
+      </c>
+      <c r="I23">
+        <v>0.04801015389213943</v>
+      </c>
+      <c r="J23">
+        <v>0.03252731641705331</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.45377</v>
+      </c>
+      <c r="O23">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P23">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q23">
+        <v>0.003255497236666667</v>
+      </c>
+      <c r="R23">
+        <v>0.01953298342</v>
+      </c>
+      <c r="S23">
+        <v>0.0008929425817683586</v>
+      </c>
+      <c r="T23">
+        <v>0.0008331820240215283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.021523</v>
+      </c>
+      <c r="H24">
+        <v>0.043046</v>
+      </c>
+      <c r="I24">
+        <v>0.04801015389213943</v>
+      </c>
+      <c r="J24">
+        <v>0.03252731641705331</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.524817</v>
+      </c>
+      <c r="N24">
+        <v>1.574451</v>
+      </c>
+      <c r="O24">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P24">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q24">
+        <v>0.011295636291</v>
+      </c>
+      <c r="R24">
+        <v>0.067773817746</v>
+      </c>
+      <c r="S24">
+        <v>0.003098253169684584</v>
+      </c>
+      <c r="T24">
+        <v>0.002890901273558673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.021523</v>
+      </c>
+      <c r="H25">
+        <v>0.043046</v>
+      </c>
+      <c r="I25">
+        <v>0.04801015389213943</v>
+      </c>
+      <c r="J25">
+        <v>0.03252731641705331</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.830022</v>
+      </c>
+      <c r="O25">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P25">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q25">
+        <v>0.01312918783533333</v>
+      </c>
+      <c r="R25">
+        <v>0.078775127012</v>
+      </c>
+      <c r="S25">
+        <v>0.003601173654875587</v>
+      </c>
+      <c r="T25">
+        <v>0.003360163593811678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.021523</v>
+      </c>
+      <c r="H26">
+        <v>0.043046</v>
+      </c>
+      <c r="I26">
+        <v>0.04801015389213943</v>
+      </c>
+      <c r="J26">
+        <v>0.03252731641705331</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.68238</v>
+      </c>
+      <c r="N26">
+        <v>13.36476</v>
+      </c>
+      <c r="O26">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P26">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q26">
+        <v>0.14382486474</v>
+      </c>
+      <c r="R26">
+        <v>0.57529945896</v>
+      </c>
+      <c r="S26">
+        <v>0.03944937952855353</v>
+      </c>
+      <c r="T26">
+        <v>0.02453947547736069</v>
       </c>
     </row>
   </sheetData>
